--- a/capiq_data/in_process_data/IQ61206100.xlsx
+++ b/capiq_data/in_process_data/IQ61206100.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE7BEE-7212-49DE-A4C4-9838D1D112F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE40C05-EF7B-456B-BC22-8C5B8B351FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"e76aa5c2-299d-419d-82dd-775efdc2933c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"d2942135-8b16-452d-9387-2d2bfd074a0b"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$51</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$51</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$51</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$51</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$51</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$51</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$51</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$51</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$51</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$51</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$51</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$51</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$51</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$51</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$51</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$51</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$51</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$51</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$51</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$51</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$51</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$51</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$51</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$51</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$51</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$51</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,33 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +760,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39721</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1406</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>36882</v>
+        <v>37808</v>
       </c>
       <c r="E2">
-        <v>8699</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4326</v>
+        <v>926</v>
       </c>
       <c r="G2">
-        <v>62340</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>138898</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21497</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,247 +799,247 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>47214</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>101739</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11717</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-6210</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39721</v>
       </c>
       <c r="S2">
-        <v>202000</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>37159</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>21061</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>-1539</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>-879</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>-1821</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>532</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1406</v>
+        <v>-2552</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39813</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>3366</v>
+        <v>-9596</v>
       </c>
       <c r="D3">
-        <v>36194</v>
+        <v>30778</v>
       </c>
       <c r="E3">
-        <v>12990</v>
+        <v>7918</v>
       </c>
       <c r="F3">
-        <v>4344</v>
+        <v>4114</v>
       </c>
       <c r="G3">
-        <v>72426</v>
+        <v>44267</v>
       </c>
       <c r="H3">
-        <v>145846</v>
+        <v>91039</v>
       </c>
       <c r="I3">
-        <v>24739</v>
+        <v>22259</v>
       </c>
       <c r="J3">
-        <v>3268</v>
+        <v>29018</v>
       </c>
       <c r="K3">
-        <v>1743</v>
+        <v>8470</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1714</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>51682</v>
+        <v>75608</v>
       </c>
       <c r="O3">
-        <v>106760</v>
+        <v>176115</v>
       </c>
       <c r="P3">
-        <v>12538</v>
+        <v>45938</v>
       </c>
       <c r="Q3">
-        <v>52</v>
+        <v>-1954</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39813</v>
       </c>
       <c r="S3">
-        <v>205000</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>39086</v>
+        <v>-85076</v>
       </c>
       <c r="U3">
-        <v>20975</v>
+        <v>14053</v>
       </c>
       <c r="V3">
-        <v>-377</v>
+        <v>-2404</v>
       </c>
       <c r="W3">
-        <v>-221</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>207</v>
+        <v>2122</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>1777</v>
+        <v>165</v>
       </c>
       <c r="AA3">
-        <v>3366</v>
+        <v>-9596</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39903</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>2992</v>
+        <v>-5975</v>
       </c>
       <c r="D4">
-        <v>39373</v>
+        <v>22431</v>
       </c>
       <c r="E4">
-        <v>11789</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5394</v>
+        <v>-1884</v>
       </c>
       <c r="G4">
-        <v>75696</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>150415</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>25412</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-870</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-99</v>
       </c>
       <c r="N4">
-        <v>53848</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>108383</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12054</v>
+        <v>45938</v>
       </c>
       <c r="Q4">
-        <v>-311</v>
+        <v>-2605</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39903</v>
       </c>
       <c r="S4">
-        <v>208000</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>42032</v>
+        <v>-85076</v>
       </c>
       <c r="U4">
-        <v>20471</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>5064</v>
+        <v>-9390</v>
       </c>
       <c r="W4">
-        <v>-214</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-287</v>
+        <v>9314</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-3671</v>
+        <v>-878</v>
       </c>
       <c r="AA4">
-        <v>2992</v>
+        <v>-5975</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39994</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2107</v>
+        <v>-12905</v>
       </c>
       <c r="D5">
-        <v>36719</v>
+        <v>23047</v>
       </c>
       <c r="E5">
-        <v>10512</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>4773</v>
+        <v>-5104</v>
       </c>
       <c r="G5">
-        <v>74052</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>148497</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>25646</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1543</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1048,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>51748</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>102881</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11688</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-393</v>
+        <v>5922</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39994</v>
       </c>
       <c r="S5">
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>45616</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>20297</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2037</v>
+        <v>-5696</v>
       </c>
       <c r="W5">
-        <v>-182</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-576</v>
+        <v>12411</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-4238</v>
+        <v>-23</v>
       </c>
       <c r="AA5">
-        <v>2107</v>
+        <v>-12905</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40086</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>725</v>
+        <v>127140</v>
       </c>
       <c r="D6">
-        <v>37990</v>
+        <v>26784</v>
       </c>
       <c r="E6">
-        <v>9964</v>
+        <v>7725</v>
       </c>
       <c r="F6">
-        <v>4594</v>
+        <v>5187</v>
       </c>
       <c r="G6">
-        <v>64923</v>
+        <v>68344</v>
       </c>
       <c r="H6">
-        <v>144603</v>
+        <v>144344</v>
       </c>
       <c r="I6">
-        <v>24551</v>
+        <v>20322</v>
       </c>
       <c r="J6">
-        <v>2760</v>
+        <v>2659</v>
       </c>
       <c r="K6">
-        <v>1231</v>
+        <v>12020</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,247 +1131,247 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>53226</v>
+        <v>58780</v>
       </c>
       <c r="O6">
-        <v>105612</v>
+        <v>123358</v>
       </c>
       <c r="P6">
-        <v>13833</v>
+        <v>15474</v>
       </c>
       <c r="Q6">
-        <v>-4533</v>
+        <v>7722</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40086</v>
       </c>
       <c r="S6">
-        <v>207000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>38991</v>
+        <v>20986</v>
       </c>
       <c r="U6">
-        <v>15499</v>
+        <v>25092</v>
       </c>
       <c r="V6">
-        <v>1442</v>
+        <v>-258</v>
       </c>
       <c r="W6">
-        <v>-245</v>
+        <v>-41</v>
       </c>
       <c r="X6">
-        <v>298</v>
+        <v>25873</v>
       </c>
       <c r="Y6">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-4489</v>
+        <v>13</v>
       </c>
       <c r="AA6">
-        <v>725</v>
+        <v>127140</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40178</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1315</v>
+        <v>-3043</v>
       </c>
       <c r="D7">
-        <v>37759</v>
+        <v>32327</v>
       </c>
       <c r="E7">
-        <v>12485</v>
+        <v>7518</v>
       </c>
       <c r="F7">
-        <v>4601</v>
+        <v>-837</v>
       </c>
       <c r="G7">
-        <v>69216</v>
+        <v>59247</v>
       </c>
       <c r="H7">
-        <v>150194</v>
+        <v>136295</v>
       </c>
       <c r="I7">
-        <v>27576</v>
+        <v>18725</v>
       </c>
       <c r="J7">
-        <v>3828</v>
+        <v>5562</v>
       </c>
       <c r="K7">
-        <v>1557</v>
+        <v>9497</v>
       </c>
       <c r="L7">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>-2057</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>56577</v>
+        <v>52435</v>
       </c>
       <c r="O7">
-        <v>110054</v>
+        <v>107340</v>
       </c>
       <c r="P7">
-        <v>14224</v>
+        <v>15783</v>
       </c>
       <c r="Q7">
-        <v>1307</v>
+        <v>-2413</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40178</v>
       </c>
       <c r="S7">
-        <v>209000</v>
+        <v>217000</v>
       </c>
       <c r="T7">
-        <v>40140</v>
+        <v>28955</v>
       </c>
       <c r="U7">
-        <v>16769</v>
+        <v>22679</v>
       </c>
       <c r="V7">
-        <v>2499</v>
+        <v>-1895</v>
       </c>
       <c r="W7">
-        <v>-189</v>
+        <v>-56</v>
       </c>
       <c r="X7">
-        <v>-28</v>
+        <v>-3024</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>1155</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>1315</v>
+        <v>-3439</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40268</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1846</v>
+        <v>1068</v>
       </c>
       <c r="D8">
-        <v>37614</v>
+        <v>31476</v>
       </c>
       <c r="E8">
-        <v>11117</v>
+        <v>8694</v>
       </c>
       <c r="F8">
-        <v>4668</v>
+        <v>3923</v>
       </c>
       <c r="G8">
-        <v>70233</v>
+        <v>60357</v>
       </c>
       <c r="H8">
-        <v>151987</v>
+        <v>136021</v>
       </c>
       <c r="I8">
-        <v>26425</v>
+        <v>20450</v>
       </c>
       <c r="J8">
-        <v>3783</v>
+        <v>5401</v>
       </c>
       <c r="K8">
-        <v>1360</v>
+        <v>8052</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-1593</v>
       </c>
       <c r="N8">
-        <v>56651</v>
+        <v>52038</v>
       </c>
       <c r="O8">
-        <v>110377</v>
+        <v>105970</v>
       </c>
       <c r="P8">
-        <v>14793</v>
+        <v>14174</v>
       </c>
       <c r="Q8">
-        <v>4806</v>
+        <v>631</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40268</v>
       </c>
       <c r="S8">
-        <v>210000</v>
+        <v>205000</v>
       </c>
       <c r="T8">
-        <v>41610</v>
+        <v>30051</v>
       </c>
       <c r="U8">
-        <v>21232</v>
+        <v>23310</v>
       </c>
       <c r="V8">
-        <v>3942</v>
+        <v>1850</v>
       </c>
       <c r="W8">
-        <v>-233</v>
+        <v>-203</v>
       </c>
       <c r="X8">
-        <v>594</v>
+        <v>-1738</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>3137</v>
+        <v>-12</v>
       </c>
       <c r="AA8">
-        <v>1846</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40359</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1833</v>
+        <v>1536</v>
       </c>
       <c r="D9">
-        <v>37576</v>
+        <v>33174</v>
       </c>
       <c r="E9">
-        <v>13015</v>
+        <v>8662</v>
       </c>
       <c r="F9">
-        <v>4530</v>
+        <v>4565</v>
       </c>
       <c r="G9">
-        <v>72107</v>
+        <v>57807</v>
       </c>
       <c r="H9">
-        <v>155456</v>
+        <v>131899</v>
       </c>
       <c r="I9">
-        <v>26313</v>
+        <v>20755</v>
       </c>
       <c r="J9">
-        <v>3314</v>
+        <v>2637</v>
       </c>
       <c r="K9">
-        <v>2277</v>
+        <v>4852</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1380,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>57623</v>
+        <v>50347</v>
       </c>
       <c r="O9">
-        <v>112827</v>
+        <v>101000</v>
       </c>
       <c r="P9">
-        <v>16653</v>
+        <v>8161</v>
       </c>
       <c r="Q9">
-        <v>1136</v>
+        <v>3463</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40359</v>
       </c>
       <c r="S9">
-        <v>213000</v>
+        <v>208000</v>
       </c>
       <c r="T9">
-        <v>42629</v>
+        <v>30899</v>
       </c>
       <c r="U9">
-        <v>21514</v>
+        <v>26773</v>
       </c>
       <c r="V9">
-        <v>3383</v>
+        <v>3845</v>
       </c>
       <c r="W9">
-        <v>-219</v>
+        <v>-202</v>
       </c>
       <c r="X9">
-        <v>1157</v>
+        <v>-6053</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>1259</v>
+        <v>-4624</v>
       </c>
       <c r="AA9">
-        <v>1833</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40451</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1194</v>
+        <v>2162</v>
       </c>
       <c r="D10">
-        <v>39307</v>
+        <v>34060</v>
       </c>
       <c r="E10">
-        <v>10395</v>
+        <v>8725</v>
       </c>
       <c r="F10">
-        <v>3712</v>
+        <v>4636</v>
       </c>
       <c r="G10">
-        <v>69996</v>
+        <v>61584</v>
       </c>
       <c r="H10">
-        <v>149422</v>
+        <v>137238</v>
       </c>
       <c r="I10">
-        <v>25166</v>
+        <v>22137</v>
       </c>
       <c r="J10">
-        <v>3424</v>
+        <v>2945</v>
       </c>
       <c r="K10">
-        <v>1748</v>
+        <v>5134</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,247 +1463,247 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>53992</v>
+        <v>52569</v>
       </c>
       <c r="O10">
-        <v>112422</v>
+        <v>106522</v>
       </c>
       <c r="P10">
-        <v>16050</v>
+        <v>8566</v>
       </c>
       <c r="Q10">
-        <v>-4898</v>
+        <v>693</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40451</v>
       </c>
       <c r="S10">
-        <v>213000</v>
+        <v>209000</v>
       </c>
       <c r="T10">
-        <v>37000</v>
+        <v>30716</v>
       </c>
       <c r="U10">
-        <v>17133</v>
+        <v>27466</v>
       </c>
       <c r="V10">
-        <v>781</v>
+        <v>2624</v>
       </c>
       <c r="W10">
-        <v>-218</v>
+        <v>-203</v>
       </c>
       <c r="X10">
-        <v>-6464</v>
+        <v>-158</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1351</v>
+        <v>-1236</v>
       </c>
       <c r="AA10">
-        <v>1194</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40543</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1175</v>
+        <v>1406</v>
       </c>
       <c r="D11">
-        <v>36884</v>
+        <v>36882</v>
       </c>
       <c r="E11">
-        <v>12559</v>
+        <v>8699</v>
       </c>
       <c r="F11">
-        <v>3911</v>
+        <v>4326</v>
       </c>
       <c r="G11">
-        <v>72570</v>
+        <v>62340</v>
       </c>
       <c r="H11">
-        <v>153775</v>
+        <v>138898</v>
       </c>
       <c r="I11">
-        <v>27117</v>
+        <v>21497</v>
       </c>
       <c r="J11">
-        <v>3419</v>
+        <v>2482</v>
       </c>
       <c r="K11">
-        <v>1756</v>
+        <v>1487</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1184</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>56427</v>
+        <v>47214</v>
       </c>
       <c r="O11">
-        <v>115328</v>
+        <v>101739</v>
       </c>
       <c r="P11">
-        <v>18424</v>
+        <v>11717</v>
       </c>
       <c r="Q11">
-        <v>2221</v>
+        <v>-6210</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40543</v>
       </c>
       <c r="S11">
-        <v>217000</v>
+        <v>202000</v>
       </c>
       <c r="T11">
-        <v>38447</v>
+        <v>37159</v>
       </c>
       <c r="U11">
-        <v>17746</v>
+        <v>21061</v>
       </c>
       <c r="V11">
-        <v>819</v>
+        <v>-1539</v>
       </c>
       <c r="W11">
-        <v>-203</v>
+        <v>-879</v>
       </c>
       <c r="X11">
-        <v>2167</v>
+        <v>-1821</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="Z11">
-        <v>2375</v>
+        <v>456</v>
       </c>
       <c r="AA11">
-        <v>1175</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40633</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1414</v>
+        <v>3366</v>
       </c>
       <c r="D12">
-        <v>39075</v>
+        <v>36194</v>
       </c>
       <c r="E12">
-        <v>11119</v>
+        <v>12990</v>
       </c>
       <c r="F12">
-        <v>4676</v>
+        <v>4344</v>
       </c>
       <c r="G12">
-        <v>77745</v>
+        <v>72426</v>
       </c>
       <c r="H12">
-        <v>163110</v>
+        <v>145846</v>
       </c>
       <c r="I12">
-        <v>26820</v>
+        <v>24739</v>
       </c>
       <c r="J12">
-        <v>3263</v>
+        <v>3268</v>
       </c>
       <c r="K12">
-        <v>699</v>
+        <v>1743</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>-1714</v>
       </c>
       <c r="N12">
-        <v>60021</v>
+        <v>51682</v>
       </c>
       <c r="O12">
-        <v>124106</v>
+        <v>106760</v>
       </c>
       <c r="P12">
-        <v>26748</v>
+        <v>12538</v>
       </c>
       <c r="Q12">
-        <v>-946</v>
+        <v>52</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40633</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>205000</v>
       </c>
       <c r="T12">
-        <v>39004</v>
+        <v>39086</v>
       </c>
       <c r="U12">
-        <v>17940</v>
+        <v>20975</v>
       </c>
       <c r="V12">
-        <v>4893</v>
+        <v>-377</v>
       </c>
       <c r="W12">
-        <v>-219</v>
+        <v>-221</v>
       </c>
       <c r="X12">
-        <v>-314</v>
+        <v>207</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>125</v>
+        <v>1777</v>
       </c>
       <c r="AA12">
-        <v>1414</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40724</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1717</v>
+        <v>2992</v>
       </c>
       <c r="D13">
-        <v>38983</v>
+        <v>39373</v>
       </c>
       <c r="E13">
-        <v>11067</v>
+        <v>11789</v>
       </c>
       <c r="F13">
-        <v>5192</v>
+        <v>5394</v>
       </c>
       <c r="G13">
-        <v>81164</v>
+        <v>75696</v>
       </c>
       <c r="H13">
-        <v>168539</v>
+        <v>150415</v>
       </c>
       <c r="I13">
-        <v>27242</v>
+        <v>25412</v>
       </c>
       <c r="J13">
-        <v>6662</v>
+        <v>2690</v>
       </c>
       <c r="K13">
-        <v>1786</v>
+        <v>2027</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1712,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>62563</v>
+        <v>53848</v>
       </c>
       <c r="O13">
-        <v>131178</v>
+        <v>108383</v>
       </c>
       <c r="P13">
-        <v>32123</v>
+        <v>12054</v>
       </c>
       <c r="Q13">
-        <v>658</v>
+        <v>-311</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40724</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>208000</v>
       </c>
       <c r="T13">
-        <v>37361</v>
+        <v>42032</v>
       </c>
       <c r="U13">
-        <v>18599</v>
+        <v>20471</v>
       </c>
       <c r="V13">
-        <v>3860</v>
+        <v>5064</v>
       </c>
       <c r="W13">
-        <v>-1015</v>
+        <v>-214</v>
       </c>
       <c r="X13">
-        <v>1466</v>
+        <v>-287</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-1873</v>
+        <v>-3671</v>
       </c>
       <c r="AA13">
-        <v>1717</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40816</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1040</v>
+        <v>2107</v>
       </c>
       <c r="D14">
-        <v>40485</v>
+        <v>36719</v>
       </c>
       <c r="E14">
-        <v>8535</v>
+        <v>10512</v>
       </c>
       <c r="F14">
-        <v>3680</v>
+        <v>4773</v>
       </c>
       <c r="G14">
-        <v>81501</v>
+        <v>74052</v>
       </c>
       <c r="H14">
-        <v>166344</v>
+        <v>148497</v>
       </c>
       <c r="I14">
-        <v>23621</v>
+        <v>25646</v>
       </c>
       <c r="J14">
-        <v>6573</v>
+        <v>2667</v>
       </c>
       <c r="K14">
-        <v>564</v>
+        <v>1543</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,247 +1795,247 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>62412</v>
+        <v>51748</v>
       </c>
       <c r="O14">
-        <v>123170</v>
+        <v>102881</v>
       </c>
       <c r="P14">
-        <v>36183</v>
+        <v>11688</v>
       </c>
       <c r="Q14">
-        <v>-334</v>
+        <v>-393</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40816</v>
       </c>
       <c r="S14">
-        <v>219000</v>
+        <v>210000</v>
       </c>
       <c r="T14">
-        <v>43174</v>
+        <v>45616</v>
       </c>
       <c r="U14">
-        <v>18921</v>
+        <v>20297</v>
       </c>
       <c r="V14">
-        <v>3058</v>
+        <v>2037</v>
       </c>
       <c r="W14">
-        <v>-168</v>
+        <v>-182</v>
       </c>
       <c r="X14">
-        <v>412</v>
+        <v>-576</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-491</v>
+        <v>-4238</v>
       </c>
       <c r="AA14">
-        <v>1040</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40908</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>213</v>
+        <v>725</v>
       </c>
       <c r="D15">
-        <v>37408</v>
+        <v>37990</v>
       </c>
       <c r="E15">
-        <v>11734</v>
+        <v>9964</v>
       </c>
       <c r="F15">
-        <v>2606</v>
+        <v>4594</v>
       </c>
       <c r="G15">
-        <v>86825</v>
+        <v>64923</v>
       </c>
       <c r="H15">
-        <v>173606</v>
+        <v>144603</v>
       </c>
       <c r="I15">
-        <v>27715</v>
+        <v>24551</v>
       </c>
       <c r="J15">
-        <v>6687</v>
+        <v>2760</v>
       </c>
       <c r="K15">
-        <v>522</v>
+        <v>1231</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-4764</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>69222</v>
+        <v>53226</v>
       </c>
       <c r="O15">
-        <v>130766</v>
+        <v>105612</v>
       </c>
       <c r="P15">
-        <v>37767</v>
+        <v>13833</v>
       </c>
       <c r="Q15">
-        <v>-595</v>
+        <v>-4533</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40908</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>207000</v>
       </c>
       <c r="T15">
-        <v>42840</v>
+        <v>38991</v>
       </c>
       <c r="U15">
-        <v>18226</v>
+        <v>15499</v>
       </c>
       <c r="V15">
-        <v>1976</v>
+        <v>1442</v>
       </c>
       <c r="W15">
-        <v>-571</v>
+        <v>-245</v>
       </c>
       <c r="X15">
-        <v>718</v>
+        <v>298</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="Z15">
-        <v>194</v>
+        <v>-4489</v>
       </c>
       <c r="AA15">
-        <v>213</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40999</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>278</v>
+        <v>1315</v>
       </c>
       <c r="D16">
-        <v>39649</v>
+        <v>37759</v>
       </c>
       <c r="E16">
-        <v>11480</v>
+        <v>12485</v>
       </c>
       <c r="F16">
-        <v>3072</v>
+        <v>4601</v>
       </c>
       <c r="G16">
-        <v>91643</v>
+        <v>69216</v>
       </c>
       <c r="H16">
-        <v>179098</v>
+        <v>150194</v>
       </c>
       <c r="I16">
-        <v>26992</v>
+        <v>27576</v>
       </c>
       <c r="J16">
-        <v>6864</v>
+        <v>3828</v>
       </c>
       <c r="K16">
-        <v>610</v>
+        <v>1557</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-2057</v>
       </c>
       <c r="N16">
-        <v>72347</v>
+        <v>56577</v>
       </c>
       <c r="O16">
-        <v>136513</v>
+        <v>110054</v>
       </c>
       <c r="P16">
-        <v>40076</v>
+        <v>14224</v>
       </c>
       <c r="Q16">
-        <v>438</v>
+        <v>1307</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40999</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>209000</v>
       </c>
       <c r="T16">
-        <v>42585</v>
+        <v>40140</v>
       </c>
       <c r="U16">
-        <v>18464</v>
+        <v>16769</v>
       </c>
       <c r="V16">
-        <v>3830</v>
+        <v>2499</v>
       </c>
       <c r="W16">
-        <v>-622</v>
+        <v>-189</v>
       </c>
       <c r="X16">
-        <v>1300</v>
+        <v>-28</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-1155</v>
+        <v>1155</v>
       </c>
       <c r="AA16">
-        <v>278</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41090</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1471</v>
+        <v>1846</v>
       </c>
       <c r="D17">
-        <v>39255</v>
+        <v>37614</v>
       </c>
       <c r="E17">
-        <v>10892</v>
+        <v>11117</v>
       </c>
       <c r="F17">
-        <v>4542</v>
+        <v>4668</v>
       </c>
       <c r="G17">
-        <v>86640</v>
+        <v>70233</v>
       </c>
       <c r="H17">
-        <v>176908</v>
+        <v>151987</v>
       </c>
       <c r="I17">
-        <v>24773</v>
+        <v>26425</v>
       </c>
       <c r="J17">
-        <v>6753</v>
+        <v>3783</v>
       </c>
       <c r="K17">
-        <v>578</v>
+        <v>1360</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2044,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>67329</v>
+        <v>56651</v>
       </c>
       <c r="O17">
-        <v>133345</v>
+        <v>110377</v>
       </c>
       <c r="P17">
-        <v>41105</v>
+        <v>14793</v>
       </c>
       <c r="Q17">
-        <v>-1804</v>
+        <v>4806</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41090</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>210000</v>
       </c>
       <c r="T17">
-        <v>43563</v>
+        <v>41610</v>
       </c>
       <c r="U17">
-        <v>16560</v>
+        <v>21232</v>
       </c>
       <c r="V17">
-        <v>1088</v>
+        <v>3942</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>-233</v>
       </c>
       <c r="X17">
-        <v>1342</v>
+        <v>594</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>270</v>
+        <v>3137</v>
       </c>
       <c r="AA17">
-        <v>1471</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41182</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>1987</v>
+        <v>1833</v>
       </c>
       <c r="D18">
-        <v>39617</v>
+        <v>37576</v>
       </c>
       <c r="E18">
-        <v>9078</v>
+        <v>13015</v>
       </c>
       <c r="F18">
-        <v>4289</v>
+        <v>4530</v>
       </c>
       <c r="G18">
-        <v>83626</v>
+        <v>72107</v>
       </c>
       <c r="H18">
-        <v>177501</v>
+        <v>155456</v>
       </c>
       <c r="I18">
-        <v>22529</v>
+        <v>26313</v>
       </c>
       <c r="J18">
-        <v>8853</v>
+        <v>3314</v>
       </c>
       <c r="K18">
-        <v>497</v>
+        <v>2277</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,247 +2127,247 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>65657</v>
+        <v>57623</v>
       </c>
       <c r="O18">
-        <v>141477</v>
+        <v>112827</v>
       </c>
       <c r="P18">
-        <v>46665</v>
+        <v>16653</v>
       </c>
       <c r="Q18">
-        <v>894</v>
+        <v>1136</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41182</v>
       </c>
       <c r="S18">
-        <v>216000</v>
+        <v>213000</v>
       </c>
       <c r="T18">
-        <v>36024</v>
+        <v>42629</v>
       </c>
       <c r="U18">
-        <v>15954</v>
+        <v>21514</v>
       </c>
       <c r="V18">
-        <v>3164</v>
+        <v>3383</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>-219</v>
       </c>
       <c r="X18">
-        <v>2315</v>
+        <v>1157</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>292</v>
+        <v>1259</v>
       </c>
       <c r="AA18">
-        <v>1987</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41274</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>945</v>
+        <v>1194</v>
       </c>
       <c r="D19">
-        <v>35712</v>
+        <v>39307</v>
       </c>
       <c r="E19">
-        <v>11569</v>
+        <v>10395</v>
       </c>
       <c r="F19">
-        <v>4170</v>
+        <v>3712</v>
       </c>
       <c r="G19">
-        <v>83231</v>
+        <v>69996</v>
       </c>
       <c r="H19">
-        <v>179918</v>
+        <v>149422</v>
       </c>
       <c r="I19">
-        <v>25187</v>
+        <v>25166</v>
       </c>
       <c r="J19">
-        <v>8722</v>
+        <v>3424</v>
       </c>
       <c r="K19">
-        <v>411</v>
+        <v>1748</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-3109</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>67342</v>
+        <v>53992</v>
       </c>
       <c r="O19">
-        <v>143095</v>
+        <v>112422</v>
       </c>
       <c r="P19">
-        <v>48258</v>
+        <v>16050</v>
       </c>
       <c r="Q19">
-        <v>-3178</v>
+        <v>-4898</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41274</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>213000</v>
       </c>
       <c r="T19">
-        <v>36823</v>
+        <v>37000</v>
       </c>
       <c r="U19">
-        <v>13676</v>
+        <v>17133</v>
       </c>
       <c r="V19">
-        <v>375</v>
+        <v>781</v>
       </c>
       <c r="W19">
-        <v>-488</v>
+        <v>-218</v>
       </c>
       <c r="X19">
-        <v>2359</v>
+        <v>-6464</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>697</v>
+        <v>1351</v>
       </c>
       <c r="AA19">
-        <v>945</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41364</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>1117</v>
+        <v>1175</v>
       </c>
       <c r="D20">
-        <v>38180</v>
+        <v>36884</v>
       </c>
       <c r="E20">
-        <v>10604</v>
+        <v>12559</v>
       </c>
       <c r="F20">
-        <v>4665</v>
+        <v>3911</v>
       </c>
       <c r="G20">
-        <v>84554</v>
+        <v>72570</v>
       </c>
       <c r="H20">
-        <v>185812</v>
+        <v>153775</v>
       </c>
       <c r="I20">
-        <v>24247</v>
+        <v>27117</v>
       </c>
       <c r="J20">
-        <v>8725</v>
+        <v>3419</v>
       </c>
       <c r="K20">
-        <v>462</v>
+        <v>1756</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-1184</v>
       </c>
       <c r="N20">
-        <v>69528</v>
+        <v>56427</v>
       </c>
       <c r="O20">
-        <v>150142</v>
+        <v>115328</v>
       </c>
       <c r="P20">
-        <v>53517</v>
+        <v>18424</v>
       </c>
       <c r="Q20">
-        <v>1851</v>
+        <v>2221</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41364</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>217000</v>
       </c>
       <c r="T20">
-        <v>35670</v>
+        <v>38447</v>
       </c>
       <c r="U20">
-        <v>15527</v>
+        <v>17746</v>
       </c>
       <c r="V20">
-        <v>5786</v>
+        <v>819</v>
       </c>
       <c r="W20">
-        <v>-598</v>
+        <v>-203</v>
       </c>
       <c r="X20">
-        <v>2395</v>
+        <v>2167</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>299</v>
+        <v>2375</v>
       </c>
       <c r="AA20">
-        <v>1117</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41455</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1359</v>
+        <v>1414</v>
       </c>
       <c r="D21">
-        <v>38843</v>
+        <v>39075</v>
       </c>
       <c r="E21">
-        <v>10486</v>
+        <v>11119</v>
       </c>
       <c r="F21">
-        <v>5279</v>
+        <v>4676</v>
       </c>
       <c r="G21">
-        <v>82341</v>
+        <v>77745</v>
       </c>
       <c r="H21">
-        <v>189000</v>
+        <v>163110</v>
       </c>
       <c r="I21">
-        <v>25188</v>
+        <v>26820</v>
       </c>
       <c r="J21">
-        <v>8503</v>
+        <v>3263</v>
       </c>
       <c r="K21">
-        <v>641</v>
+        <v>699</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2376,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>72739</v>
+        <v>60021</v>
       </c>
       <c r="O21">
-        <v>153865</v>
+        <v>124106</v>
       </c>
       <c r="P21">
-        <v>57403</v>
+        <v>26748</v>
       </c>
       <c r="Q21">
-        <v>-2194</v>
+        <v>-946</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41455</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>35135</v>
+        <v>39004</v>
       </c>
       <c r="U21">
-        <v>13833</v>
+        <v>17940</v>
       </c>
       <c r="V21">
-        <v>3308</v>
+        <v>4893</v>
       </c>
       <c r="W21">
-        <v>-592</v>
+        <v>-219</v>
       </c>
       <c r="X21">
-        <v>3590</v>
+        <v>-314</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="AA21">
-        <v>1359</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41547</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>6266</v>
+        <v>1717</v>
       </c>
       <c r="D22">
-        <v>39621</v>
+        <v>38983</v>
       </c>
       <c r="E22">
-        <v>8337</v>
+        <v>11067</v>
       </c>
       <c r="F22">
-        <v>5724</v>
+        <v>5192</v>
       </c>
       <c r="G22">
-        <v>69408</v>
+        <v>81164</v>
       </c>
       <c r="H22">
-        <v>194338</v>
+        <v>168539</v>
       </c>
       <c r="I22">
-        <v>24062</v>
+        <v>27242</v>
       </c>
       <c r="J22">
-        <v>7948</v>
+        <v>6662</v>
       </c>
       <c r="K22">
-        <v>817</v>
+        <v>1786</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,247 +2459,247 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>71217</v>
+        <v>62563</v>
       </c>
       <c r="O22">
-        <v>154015</v>
+        <v>131178</v>
       </c>
       <c r="P22">
-        <v>63111</v>
+        <v>32123</v>
       </c>
       <c r="Q22">
-        <v>-336</v>
+        <v>658</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41547</v>
       </c>
       <c r="S22">
-        <v>215000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>40323</v>
+        <v>37361</v>
       </c>
       <c r="U22">
-        <v>12138</v>
+        <v>18599</v>
       </c>
       <c r="V22">
-        <v>2222</v>
+        <v>3860</v>
       </c>
       <c r="W22">
-        <v>-564</v>
+        <v>-1015</v>
       </c>
       <c r="X22">
-        <v>5342</v>
+        <v>1466</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-172</v>
+        <v>-1873</v>
       </c>
       <c r="AA22">
-        <v>6266</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41639</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>1953</v>
+        <v>1040</v>
       </c>
       <c r="D23">
-        <v>33016</v>
+        <v>40485</v>
       </c>
       <c r="E23">
-        <v>8988</v>
+        <v>8535</v>
       </c>
       <c r="F23">
-        <v>4797</v>
+        <v>3680</v>
       </c>
       <c r="G23">
-        <v>71034</v>
+        <v>81501</v>
       </c>
       <c r="H23">
-        <v>203618</v>
+        <v>166344</v>
       </c>
       <c r="I23">
-        <v>26766</v>
+        <v>23621</v>
       </c>
       <c r="J23">
-        <v>9946</v>
+        <v>6573</v>
       </c>
       <c r="K23">
-        <v>832</v>
+        <v>564</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-5550</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>74987</v>
+        <v>62412</v>
       </c>
       <c r="O23">
-        <v>162293</v>
+        <v>123170</v>
       </c>
       <c r="P23">
-        <v>71149</v>
+        <v>36183</v>
       </c>
       <c r="Q23">
-        <v>-169</v>
+        <v>-334</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41639</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>219000</v>
       </c>
       <c r="T23">
-        <v>41325</v>
+        <v>43174</v>
       </c>
       <c r="U23">
-        <v>11994</v>
+        <v>18921</v>
       </c>
       <c r="V23">
-        <v>-108</v>
+        <v>3058</v>
       </c>
       <c r="W23">
-        <v>-588</v>
+        <v>-168</v>
       </c>
       <c r="X23">
-        <v>6427</v>
+        <v>412</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1686</v>
+        <v>-491</v>
       </c>
       <c r="AA23">
-        <v>1953</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41729</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="D24">
-        <v>37383</v>
+        <v>37408</v>
       </c>
       <c r="E24">
-        <v>10461</v>
+        <v>11734</v>
       </c>
       <c r="F24">
-        <v>5518</v>
+        <v>2606</v>
       </c>
       <c r="G24">
-        <v>74630</v>
+        <v>86825</v>
       </c>
       <c r="H24">
-        <v>210449</v>
+        <v>173606</v>
       </c>
       <c r="I24">
-        <v>26959</v>
+        <v>27715</v>
       </c>
       <c r="J24">
-        <v>9789</v>
+        <v>6687</v>
       </c>
       <c r="K24">
-        <v>1031</v>
+        <v>522</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-4764</v>
       </c>
       <c r="N24">
-        <v>76043</v>
+        <v>69222</v>
       </c>
       <c r="O24">
-        <v>166446</v>
+        <v>130766</v>
       </c>
       <c r="P24">
-        <v>75320</v>
+        <v>37767</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-595</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41729</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>44003</v>
+        <v>42840</v>
       </c>
       <c r="U24">
-        <v>15823</v>
+        <v>18226</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1976</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-571</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="AA24">
-        <v>2866</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41820</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>2773</v>
+        <v>278</v>
       </c>
       <c r="D25">
-        <v>38889</v>
+        <v>39649</v>
       </c>
       <c r="E25">
-        <v>10737</v>
+        <v>11480</v>
       </c>
       <c r="F25">
-        <v>5583</v>
+        <v>3072</v>
       </c>
       <c r="G25">
-        <v>76496</v>
+        <v>91643</v>
       </c>
       <c r="H25">
-        <v>217576</v>
+        <v>179098</v>
       </c>
       <c r="I25">
-        <v>28628</v>
+        <v>26992</v>
       </c>
       <c r="J25">
-        <v>9740</v>
+        <v>6864</v>
       </c>
       <c r="K25">
-        <v>1012</v>
+        <v>610</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2708,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>82535</v>
+        <v>72347</v>
       </c>
       <c r="O25">
-        <v>172561</v>
+        <v>136513</v>
       </c>
       <c r="P25">
-        <v>79100</v>
+        <v>40076</v>
       </c>
       <c r="Q25">
-        <v>-2975</v>
+        <v>438</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41820</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>45015</v>
+        <v>42585</v>
       </c>
       <c r="U25">
-        <v>13332</v>
+        <v>18464</v>
       </c>
       <c r="V25">
-        <v>6570</v>
+        <v>3830</v>
       </c>
       <c r="W25">
-        <v>-594</v>
+        <v>-622</v>
       </c>
       <c r="X25">
-        <v>2118</v>
+        <v>1300</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-3595</v>
+        <v>-1155</v>
       </c>
       <c r="AA25">
-        <v>2773</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41912</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>1835</v>
+        <v>1471</v>
       </c>
       <c r="D26">
-        <v>39896</v>
+        <v>39255</v>
       </c>
       <c r="E26">
-        <v>8700</v>
+        <v>10892</v>
       </c>
       <c r="F26">
-        <v>4730</v>
+        <v>4542</v>
       </c>
       <c r="G26">
-        <v>76203</v>
+        <v>86640</v>
       </c>
       <c r="H26">
-        <v>221690</v>
+        <v>176908</v>
       </c>
       <c r="I26">
-        <v>23333</v>
+        <v>24773</v>
       </c>
       <c r="J26">
-        <v>9500</v>
+        <v>6753</v>
       </c>
       <c r="K26">
-        <v>1060</v>
+        <v>578</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,247 +2791,247 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>85181</v>
+        <v>67329</v>
       </c>
       <c r="O26">
-        <v>177615</v>
+        <v>133345</v>
       </c>
       <c r="P26">
-        <v>75123</v>
+        <v>41105</v>
       </c>
       <c r="Q26">
-        <v>-2959</v>
+        <v>-1804</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41912</v>
       </c>
       <c r="S26">
-        <v>225000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>44075</v>
+        <v>43563</v>
       </c>
       <c r="U26">
-        <v>9774</v>
+        <v>16560</v>
       </c>
       <c r="V26">
-        <v>4018</v>
+        <v>1088</v>
       </c>
       <c r="W26">
-        <v>-555</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>4932</v>
+        <v>1342</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-3775</v>
+        <v>270</v>
       </c>
       <c r="AA26">
-        <v>1835</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42004</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2608</v>
+        <v>1987</v>
       </c>
       <c r="D27">
-        <v>37266</v>
+        <v>39617</v>
       </c>
       <c r="E27">
-        <v>10898</v>
+        <v>9078</v>
       </c>
       <c r="F27">
-        <v>4985</v>
+        <v>4289</v>
       </c>
       <c r="G27">
-        <v>79598</v>
+        <v>83626</v>
       </c>
       <c r="H27">
-        <v>230793</v>
+        <v>177501</v>
       </c>
       <c r="I27">
-        <v>28725</v>
+        <v>22529</v>
       </c>
       <c r="J27">
-        <v>9602</v>
+        <v>8853</v>
       </c>
       <c r="K27">
-        <v>1350</v>
+        <v>497</v>
       </c>
       <c r="L27">
-        <v>-360</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>-5141</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>90904</v>
+        <v>65657</v>
       </c>
       <c r="O27">
-        <v>184579</v>
+        <v>141477</v>
       </c>
       <c r="P27">
-        <v>90901</v>
+        <v>46665</v>
       </c>
       <c r="Q27">
-        <v>386</v>
+        <v>894</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42004</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>216000</v>
       </c>
       <c r="T27">
-        <v>46214</v>
+        <v>36024</v>
       </c>
       <c r="U27">
-        <v>10164</v>
+        <v>15954</v>
       </c>
       <c r="V27">
-        <v>2041</v>
+        <v>3164</v>
       </c>
       <c r="W27">
-        <v>-573</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>5047</v>
+        <v>2315</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>1598</v>
+        <v>292</v>
       </c>
       <c r="AA27">
-        <v>2608</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42094</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1660</v>
+        <v>945</v>
       </c>
       <c r="D28">
-        <v>36984</v>
+        <v>35712</v>
       </c>
       <c r="E28">
-        <v>9796</v>
+        <v>11569</v>
       </c>
       <c r="F28">
-        <v>4816</v>
+        <v>4170</v>
       </c>
       <c r="G28">
-        <v>85081</v>
+        <v>83231</v>
       </c>
       <c r="H28">
-        <v>240300</v>
+        <v>179918</v>
       </c>
       <c r="I28">
-        <v>23404</v>
+        <v>25187</v>
       </c>
       <c r="J28">
-        <v>9544</v>
+        <v>8722</v>
       </c>
       <c r="K28">
-        <v>1066</v>
+        <v>411</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-3109</v>
       </c>
       <c r="N28">
-        <v>94306</v>
+        <v>67342</v>
       </c>
       <c r="O28">
-        <v>194575</v>
+        <v>143095</v>
       </c>
       <c r="P28">
-        <v>89089</v>
+        <v>48258</v>
       </c>
       <c r="Q28">
-        <v>3999</v>
+        <v>-3178</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42094</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>45725</v>
+        <v>36823</v>
       </c>
       <c r="U28">
-        <v>11398</v>
+        <v>13676</v>
       </c>
       <c r="V28">
-        <v>5518</v>
+        <v>375</v>
       </c>
       <c r="W28">
-        <v>-564</v>
+        <v>-488</v>
       </c>
       <c r="X28">
-        <v>5493</v>
+        <v>2359</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1125</v>
+        <v>697</v>
       </c>
       <c r="AA28">
-        <v>1660</v>
+        <v>945</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42185</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-2981</v>
+        <v>1117</v>
       </c>
       <c r="D29">
-        <v>33623</v>
+        <v>38180</v>
       </c>
       <c r="E29">
-        <v>10013</v>
+        <v>10604</v>
       </c>
       <c r="F29">
-        <v>3920</v>
+        <v>4665</v>
       </c>
       <c r="G29">
-        <v>76618</v>
+        <v>84554</v>
       </c>
       <c r="H29">
-        <v>229502</v>
+        <v>185812</v>
       </c>
       <c r="I29">
-        <v>23265</v>
+        <v>24247</v>
       </c>
       <c r="J29">
-        <v>12508</v>
+        <v>8725</v>
       </c>
       <c r="K29">
-        <v>1127</v>
+        <v>462</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3040,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>81849</v>
+        <v>69528</v>
       </c>
       <c r="O29">
-        <v>186025</v>
+        <v>150142</v>
       </c>
       <c r="P29">
-        <v>92673</v>
+        <v>53517</v>
       </c>
       <c r="Q29">
-        <v>-3665</v>
+        <v>1851</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42185</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>43477</v>
+        <v>35670</v>
       </c>
       <c r="U29">
-        <v>8792</v>
+        <v>15527</v>
       </c>
       <c r="V29">
-        <v>2881</v>
+        <v>5786</v>
       </c>
       <c r="W29">
-        <v>-546</v>
+        <v>-598</v>
       </c>
       <c r="X29">
-        <v>2139</v>
+        <v>2395</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>679</v>
+        <v>299</v>
       </c>
       <c r="AA29">
-        <v>-2981</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42277</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-5151</v>
+        <v>1359</v>
       </c>
       <c r="D30">
-        <v>37715</v>
+        <v>38843</v>
       </c>
       <c r="E30">
-        <v>8164</v>
+        <v>10486</v>
       </c>
       <c r="F30">
-        <v>5083</v>
+        <v>5279</v>
       </c>
       <c r="G30">
-        <v>68744</v>
+        <v>82341</v>
       </c>
       <c r="H30">
-        <v>212482</v>
+        <v>189000</v>
       </c>
       <c r="I30">
-        <v>23929</v>
+        <v>25188</v>
       </c>
       <c r="J30">
-        <v>10268</v>
+        <v>8503</v>
       </c>
       <c r="K30">
-        <v>2515</v>
+        <v>641</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,247 +3123,247 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>76890</v>
+        <v>72739</v>
       </c>
       <c r="O30">
-        <v>176282</v>
+        <v>153865</v>
       </c>
       <c r="P30">
-        <v>94219</v>
+        <v>57403</v>
       </c>
       <c r="Q30">
-        <v>1968</v>
+        <v>-2194</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42277</v>
       </c>
       <c r="S30">
-        <v>180000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>36200</v>
+        <v>35135</v>
       </c>
       <c r="U30">
-        <v>11212</v>
+        <v>13833</v>
       </c>
       <c r="V30">
-        <v>6888</v>
+        <v>3308</v>
       </c>
       <c r="W30">
-        <v>-532</v>
+        <v>-592</v>
       </c>
       <c r="X30">
-        <v>-95</v>
+        <v>3590</v>
       </c>
       <c r="Y30">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="AA30">
-        <v>-5151</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42369</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1046</v>
+        <v>6266</v>
       </c>
       <c r="D31">
-        <v>36099</v>
+        <v>39621</v>
       </c>
       <c r="E31">
-        <v>10769</v>
+        <v>8337</v>
       </c>
       <c r="F31">
-        <v>3895</v>
+        <v>5724</v>
       </c>
       <c r="G31">
-        <v>71435</v>
+        <v>69408</v>
       </c>
       <c r="H31">
-        <v>218726</v>
+        <v>194338</v>
       </c>
       <c r="I31">
-        <v>26039</v>
+        <v>24062</v>
       </c>
       <c r="J31">
-        <v>11867</v>
+        <v>7948</v>
       </c>
       <c r="K31">
-        <v>4341</v>
+        <v>817</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-6832</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>82716</v>
+        <v>71217</v>
       </c>
       <c r="O31">
-        <v>183268</v>
+        <v>154015</v>
       </c>
       <c r="P31">
-        <v>99728</v>
+        <v>63111</v>
       </c>
       <c r="Q31">
-        <v>-301</v>
+        <v>-336</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42369</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>215000</v>
       </c>
       <c r="T31">
-        <v>35458</v>
+        <v>40323</v>
       </c>
       <c r="U31">
-        <v>10056</v>
+        <v>12138</v>
       </c>
       <c r="V31">
-        <v>448</v>
+        <v>2222</v>
       </c>
       <c r="W31">
-        <v>-536</v>
+        <v>-564</v>
       </c>
       <c r="X31">
-        <v>3769</v>
+        <v>5342</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1148</v>
+        <v>-172</v>
       </c>
       <c r="AA31">
-        <v>1046</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42460</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>2390</v>
+        <v>1953</v>
       </c>
       <c r="D32">
-        <v>36760</v>
+        <v>33016</v>
       </c>
       <c r="E32">
-        <v>9663</v>
+        <v>8988</v>
       </c>
       <c r="F32">
-        <v>3934</v>
+        <v>4797</v>
       </c>
       <c r="G32">
-        <v>70451</v>
+        <v>71034</v>
       </c>
       <c r="H32">
-        <v>218641</v>
+        <v>203618</v>
       </c>
       <c r="I32">
-        <v>24660</v>
+        <v>26766</v>
       </c>
       <c r="J32">
-        <v>12035</v>
+        <v>9946</v>
       </c>
       <c r="K32">
-        <v>2807</v>
+        <v>832</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-5550</v>
       </c>
       <c r="N32">
-        <v>80292</v>
+        <v>74987</v>
       </c>
       <c r="O32">
-        <v>180005</v>
+        <v>162293</v>
       </c>
       <c r="P32">
-        <v>99282</v>
+        <v>71149</v>
       </c>
       <c r="Q32">
-        <v>224</v>
+        <v>-169</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42460</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>38636</v>
+        <v>41325</v>
       </c>
       <c r="U32">
-        <v>11087</v>
+        <v>11994</v>
       </c>
       <c r="V32">
-        <v>5105</v>
+        <v>-108</v>
       </c>
       <c r="W32">
-        <v>-568</v>
+        <v>-588</v>
       </c>
       <c r="X32">
-        <v>886</v>
+        <v>6427</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>167</v>
+        <v>1686</v>
       </c>
       <c r="AA32">
-        <v>2390</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42551</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>2534</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>35791</v>
+        <v>37383</v>
       </c>
       <c r="E33">
-        <v>10376</v>
+        <v>10461</v>
       </c>
       <c r="F33">
-        <v>4246</v>
+        <v>5518</v>
       </c>
       <c r="G33">
-        <v>74848</v>
+        <v>74630</v>
       </c>
       <c r="H33">
-        <v>225711</v>
+        <v>210449</v>
       </c>
       <c r="I33">
-        <v>25147</v>
+        <v>26959</v>
       </c>
       <c r="J33">
-        <v>14228</v>
+        <v>9789</v>
       </c>
       <c r="K33">
-        <v>2915</v>
+        <v>1031</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3372,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>84116</v>
+        <v>76043</v>
       </c>
       <c r="O33">
-        <v>184803</v>
+        <v>166446</v>
       </c>
       <c r="P33">
-        <v>103520</v>
+        <v>75320</v>
       </c>
       <c r="Q33">
-        <v>3087</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42551</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>40908</v>
+        <v>44003</v>
       </c>
       <c r="U33">
-        <v>13935</v>
+        <v>15823</v>
       </c>
       <c r="V33">
-        <v>3673</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>-586</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>3957</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>1009</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>2534</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42643</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>2044</v>
+        <v>2773</v>
       </c>
       <c r="D34">
-        <v>38399</v>
+        <v>38889</v>
       </c>
       <c r="E34">
-        <v>6549</v>
+        <v>10737</v>
       </c>
       <c r="F34">
-        <v>3349</v>
+        <v>5583</v>
       </c>
       <c r="G34">
-        <v>75293</v>
+        <v>76496</v>
       </c>
       <c r="H34">
-        <v>227339</v>
+        <v>217576</v>
       </c>
       <c r="I34">
-        <v>22297</v>
+        <v>28628</v>
       </c>
       <c r="J34">
-        <v>12500</v>
+        <v>9740</v>
       </c>
       <c r="K34">
-        <v>935</v>
+        <v>1012</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,247 +3455,247 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>82237</v>
+        <v>82535</v>
       </c>
       <c r="O34">
-        <v>184562</v>
+        <v>172561</v>
       </c>
       <c r="P34">
-        <v>104951</v>
+        <v>79100</v>
       </c>
       <c r="Q34">
-        <v>2638</v>
+        <v>-2975</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42643</v>
       </c>
       <c r="S34">
-        <v>173000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>42777</v>
+        <v>45015</v>
       </c>
       <c r="U34">
-        <v>15944</v>
+        <v>13332</v>
       </c>
       <c r="V34">
-        <v>6030</v>
+        <v>6570</v>
       </c>
       <c r="W34">
-        <v>-552</v>
+        <v>-594</v>
       </c>
       <c r="X34">
-        <v>2842</v>
+        <v>2118</v>
       </c>
       <c r="Y34">
-        <v>528</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-36</v>
+        <v>-3595</v>
       </c>
       <c r="AA34">
-        <v>2044</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42735</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>2157</v>
+        <v>1835</v>
       </c>
       <c r="D35">
-        <v>34878</v>
+        <v>39896</v>
       </c>
       <c r="E35">
-        <v>12116</v>
+        <v>8700</v>
       </c>
       <c r="F35">
-        <v>3321</v>
+        <v>4730</v>
       </c>
       <c r="G35">
-        <v>80090</v>
+        <v>76203</v>
       </c>
       <c r="H35">
-        <v>233132</v>
+        <v>221690</v>
       </c>
       <c r="I35">
-        <v>24560</v>
+        <v>23333</v>
       </c>
       <c r="J35">
-        <v>13091</v>
+        <v>9500</v>
       </c>
       <c r="K35">
-        <v>1999</v>
+        <v>1060</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-10777</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>85303</v>
+        <v>85181</v>
       </c>
       <c r="O35">
-        <v>188494</v>
+        <v>177615</v>
       </c>
       <c r="P35">
-        <v>108586</v>
+        <v>75123</v>
       </c>
       <c r="Q35">
-        <v>-2715</v>
+        <v>-2959</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42735</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>225000</v>
       </c>
       <c r="T35">
-        <v>44638</v>
+        <v>44075</v>
       </c>
       <c r="U35">
-        <v>11876</v>
+        <v>9774</v>
       </c>
       <c r="V35">
-        <v>-81</v>
+        <v>4018</v>
       </c>
       <c r="W35">
-        <v>-626</v>
+        <v>-555</v>
       </c>
       <c r="X35">
-        <v>1077</v>
+        <v>4932</v>
       </c>
       <c r="Y35">
-        <v>1129</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>-3775</v>
       </c>
       <c r="AA35">
-        <v>2157</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42825</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>2418</v>
+        <v>2608</v>
       </c>
       <c r="D36">
-        <v>36060</v>
+        <v>37266</v>
       </c>
       <c r="E36">
-        <v>10362</v>
+        <v>10898</v>
       </c>
       <c r="F36">
-        <v>4570</v>
+        <v>4985</v>
       </c>
       <c r="G36">
-        <v>81306</v>
+        <v>79598</v>
       </c>
       <c r="H36">
-        <v>233737</v>
+        <v>230793</v>
       </c>
       <c r="I36">
-        <v>22717</v>
+        <v>28725</v>
       </c>
       <c r="J36">
-        <v>12979</v>
+        <v>9602</v>
       </c>
       <c r="K36">
-        <v>2490</v>
+        <v>1350</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-360</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-5141</v>
       </c>
       <c r="N36">
-        <v>84294</v>
+        <v>90904</v>
       </c>
       <c r="O36">
-        <v>186648</v>
+        <v>184579</v>
       </c>
       <c r="P36">
-        <v>107994</v>
+        <v>90901</v>
       </c>
       <c r="Q36">
-        <v>-600</v>
+        <v>386</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42825</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>47089</v>
+        <v>46214</v>
       </c>
       <c r="U36">
-        <v>13472</v>
+        <v>10164</v>
       </c>
       <c r="V36">
-        <v>5076</v>
+        <v>2041</v>
       </c>
       <c r="W36">
-        <v>-558</v>
+        <v>-573</v>
       </c>
       <c r="X36">
-        <v>-1289</v>
+        <v>5047</v>
       </c>
       <c r="Y36">
-        <v>1180</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-970</v>
+        <v>1598</v>
       </c>
       <c r="AA36">
-        <v>2418</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42916</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>2351</v>
+        <v>1660</v>
       </c>
       <c r="D37">
-        <v>35473</v>
+        <v>36984</v>
       </c>
       <c r="E37">
-        <v>6924</v>
+        <v>9796</v>
       </c>
       <c r="F37">
-        <v>4528</v>
+        <v>4816</v>
       </c>
       <c r="G37">
-        <v>80565</v>
+        <v>85081</v>
       </c>
       <c r="H37">
-        <v>231529</v>
+        <v>240300</v>
       </c>
       <c r="I37">
-        <v>21406</v>
+        <v>23404</v>
       </c>
       <c r="J37">
-        <v>12103</v>
+        <v>9544</v>
       </c>
       <c r="K37">
-        <v>2890</v>
+        <v>1066</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3704,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>84252</v>
+        <v>94306</v>
       </c>
       <c r="O37">
-        <v>182758</v>
+        <v>194575</v>
       </c>
       <c r="P37">
-        <v>106093</v>
+        <v>89089</v>
       </c>
       <c r="Q37">
-        <v>2718</v>
+        <v>3999</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42916</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>48771</v>
+        <v>45725</v>
       </c>
       <c r="U37">
-        <v>16851</v>
+        <v>11398</v>
       </c>
       <c r="V37">
-        <v>6553</v>
+        <v>5518</v>
       </c>
       <c r="W37">
-        <v>-608</v>
+        <v>-564</v>
       </c>
       <c r="X37">
-        <v>-2133</v>
+        <v>5493</v>
       </c>
       <c r="Y37">
-        <v>1345</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>426</v>
+        <v>1125</v>
       </c>
       <c r="AA37">
-        <v>2351</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43008</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-194</v>
+        <v>-2981</v>
       </c>
       <c r="D38">
-        <v>30826</v>
+        <v>33623</v>
       </c>
       <c r="E38">
-        <v>6797</v>
+        <v>10013</v>
       </c>
       <c r="F38">
-        <v>2068</v>
+        <v>3920</v>
       </c>
       <c r="G38">
-        <v>74992</v>
+        <v>76618</v>
       </c>
       <c r="H38">
-        <v>228037</v>
+        <v>229502</v>
       </c>
       <c r="I38">
-        <v>21018</v>
+        <v>23265</v>
       </c>
       <c r="J38">
-        <v>12179</v>
+        <v>12508</v>
       </c>
       <c r="K38">
-        <v>1897</v>
+        <v>1127</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,247 +3787,247 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>84905</v>
+        <v>81849</v>
       </c>
       <c r="O38">
-        <v>182080</v>
+        <v>186025</v>
       </c>
       <c r="P38">
-        <v>104573</v>
+        <v>92673</v>
       </c>
       <c r="Q38">
-        <v>44</v>
+        <v>-3665</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43008</v>
       </c>
       <c r="S38">
-        <v>164000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>45957</v>
+        <v>43477</v>
       </c>
       <c r="U38">
-        <v>15769</v>
+        <v>8792</v>
       </c>
       <c r="V38">
-        <v>3473</v>
+        <v>2881</v>
       </c>
       <c r="W38">
-        <v>-558</v>
+        <v>-546</v>
       </c>
       <c r="X38">
-        <v>-2332</v>
+        <v>2139</v>
       </c>
       <c r="Y38">
-        <v>1320</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>2733</v>
+        <v>679</v>
       </c>
       <c r="AA38">
-        <v>-194</v>
+        <v>-2981</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43100</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>294</v>
+        <v>-5151</v>
       </c>
       <c r="D39">
-        <v>32709</v>
+        <v>37715</v>
       </c>
       <c r="E39">
-        <v>7536</v>
+        <v>8164</v>
       </c>
       <c r="F39">
-        <v>3141</v>
+        <v>5083</v>
       </c>
       <c r="G39">
-        <v>97699</v>
+        <v>68744</v>
       </c>
       <c r="H39">
-        <v>246624</v>
+        <v>212482</v>
       </c>
       <c r="I39">
-        <v>20031</v>
+        <v>23929</v>
       </c>
       <c r="J39">
-        <v>29155</v>
+        <v>10268</v>
       </c>
       <c r="K39">
-        <v>1645</v>
+        <v>2515</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-11339</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>91292</v>
+        <v>76890</v>
       </c>
       <c r="O39">
-        <v>202307</v>
+        <v>176282</v>
       </c>
       <c r="P39">
-        <v>128759</v>
+        <v>94219</v>
       </c>
       <c r="Q39">
-        <v>18223</v>
+        <v>1968</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43100</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="T39">
-        <v>44317</v>
+        <v>36200</v>
       </c>
       <c r="U39">
-        <v>26906</v>
+        <v>11212</v>
       </c>
       <c r="V39">
-        <v>1561</v>
+        <v>6888</v>
       </c>
       <c r="W39">
-        <v>-590</v>
+        <v>-532</v>
       </c>
       <c r="X39">
-        <v>23680</v>
+        <v>-95</v>
       </c>
       <c r="Y39">
-        <v>1480</v>
+        <v>719</v>
       </c>
       <c r="Z39">
-        <v>-2978</v>
+        <v>102</v>
       </c>
       <c r="AA39">
-        <v>294</v>
+        <v>-5151</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43190</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-758</v>
+        <v>1046</v>
       </c>
       <c r="D40">
-        <v>16778</v>
+        <v>36099</v>
       </c>
       <c r="E40">
-        <v>7946</v>
+        <v>10769</v>
       </c>
       <c r="F40">
-        <v>96</v>
+        <v>3895</v>
       </c>
       <c r="G40">
-        <v>87497</v>
+        <v>71435</v>
       </c>
       <c r="H40">
-        <v>237535</v>
+        <v>218726</v>
       </c>
       <c r="I40">
-        <v>15154</v>
+        <v>26039</v>
       </c>
       <c r="J40">
-        <v>31937</v>
+        <v>11867</v>
       </c>
       <c r="K40">
-        <v>2645</v>
+        <v>4341</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>-6832</v>
       </c>
       <c r="N40">
-        <v>77904</v>
+        <v>82716</v>
       </c>
       <c r="O40">
-        <v>194042</v>
+        <v>183268</v>
       </c>
       <c r="P40">
-        <v>128258</v>
+        <v>99728</v>
       </c>
       <c r="Q40">
-        <v>-8526</v>
+        <v>-301</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43190</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>43493</v>
+        <v>35458</v>
       </c>
       <c r="U40">
-        <v>21728</v>
+        <v>10056</v>
       </c>
       <c r="V40">
-        <v>-2815</v>
+        <v>448</v>
       </c>
       <c r="W40">
-        <v>-2</v>
+        <v>-536</v>
       </c>
       <c r="X40">
-        <v>36</v>
+        <v>3769</v>
       </c>
       <c r="Y40">
-        <v>1234</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-984</v>
+        <v>1148</v>
       </c>
       <c r="AA40">
-        <v>-758</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43281</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>4045</v>
+        <v>2390</v>
       </c>
       <c r="D41">
-        <v>35480</v>
+        <v>36760</v>
       </c>
       <c r="E41">
-        <v>9939</v>
+        <v>9663</v>
       </c>
       <c r="F41">
-        <v>6098</v>
+        <v>3934</v>
       </c>
       <c r="G41">
-        <v>89177</v>
+        <v>70451</v>
       </c>
       <c r="H41">
-        <v>239671</v>
+        <v>218641</v>
       </c>
       <c r="I41">
-        <v>20914</v>
+        <v>24660</v>
       </c>
       <c r="J41">
-        <v>26160</v>
+        <v>12035</v>
       </c>
       <c r="K41">
-        <v>2225</v>
+        <v>2807</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4036,875 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>80603</v>
+        <v>80292</v>
       </c>
       <c r="O41">
-        <v>191663</v>
+        <v>180005</v>
       </c>
       <c r="P41">
-        <v>118579</v>
+        <v>99282</v>
       </c>
       <c r="Q41">
-        <v>-2784</v>
+        <v>224</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43281</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>48008</v>
+        <v>38636</v>
       </c>
       <c r="U41">
-        <v>22239</v>
+        <v>11087</v>
       </c>
       <c r="V41">
-        <v>11231</v>
+        <v>5105</v>
       </c>
       <c r="W41">
-        <v>-61</v>
+        <v>-568</v>
       </c>
       <c r="X41">
-        <v>-9557</v>
+        <v>886</v>
       </c>
       <c r="Y41">
-        <v>1264</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1210</v>
+        <v>167</v>
       </c>
       <c r="AA41">
-        <v>4045</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43373</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>2534</v>
+      </c>
+      <c r="D42">
+        <v>35791</v>
+      </c>
+      <c r="E42">
+        <v>10376</v>
+      </c>
+      <c r="F42">
+        <v>4246</v>
+      </c>
+      <c r="G42">
+        <v>74848</v>
+      </c>
+      <c r="H42">
+        <v>225711</v>
+      </c>
+      <c r="I42">
+        <v>25147</v>
+      </c>
+      <c r="J42">
+        <v>14228</v>
+      </c>
+      <c r="K42">
+        <v>2915</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>84116</v>
+      </c>
+      <c r="O42">
+        <v>184803</v>
+      </c>
+      <c r="P42">
+        <v>103520</v>
+      </c>
+      <c r="Q42">
+        <v>3087</v>
+      </c>
+      <c r="R42">
+        <v>43373</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>40908</v>
+      </c>
+      <c r="U42">
+        <v>13935</v>
+      </c>
+      <c r="V42">
+        <v>3673</v>
+      </c>
+      <c r="W42">
+        <v>-586</v>
+      </c>
+      <c r="X42">
+        <v>3957</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>1009</v>
+      </c>
+      <c r="AA42">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>2044</v>
+      </c>
+      <c r="D43">
+        <v>38399</v>
+      </c>
+      <c r="E43">
+        <v>6549</v>
+      </c>
+      <c r="F43">
+        <v>3349</v>
+      </c>
+      <c r="G43">
+        <v>75293</v>
+      </c>
+      <c r="H43">
+        <v>227339</v>
+      </c>
+      <c r="I43">
+        <v>22297</v>
+      </c>
+      <c r="J43">
+        <v>12500</v>
+      </c>
+      <c r="K43">
+        <v>935</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>82237</v>
+      </c>
+      <c r="O43">
+        <v>184562</v>
+      </c>
+      <c r="P43">
+        <v>104951</v>
+      </c>
+      <c r="Q43">
+        <v>2638</v>
+      </c>
+      <c r="R43">
+        <v>43465</v>
+      </c>
+      <c r="S43">
+        <v>173000</v>
+      </c>
+      <c r="T43">
+        <v>42777</v>
+      </c>
+      <c r="U43">
+        <v>15944</v>
+      </c>
+      <c r="V43">
+        <v>6030</v>
+      </c>
+      <c r="W43">
+        <v>-552</v>
+      </c>
+      <c r="X43">
+        <v>2842</v>
+      </c>
+      <c r="Y43">
+        <v>528</v>
+      </c>
+      <c r="Z43">
+        <v>-36</v>
+      </c>
+      <c r="AA43">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>2157</v>
+      </c>
+      <c r="D44">
+        <v>34878</v>
+      </c>
+      <c r="E44">
+        <v>12116</v>
+      </c>
+      <c r="F44">
+        <v>3321</v>
+      </c>
+      <c r="G44">
+        <v>80090</v>
+      </c>
+      <c r="H44">
+        <v>233132</v>
+      </c>
+      <c r="I44">
+        <v>24560</v>
+      </c>
+      <c r="J44">
+        <v>13091</v>
+      </c>
+      <c r="K44">
+        <v>1999</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>-10777</v>
+      </c>
+      <c r="N44">
+        <v>85303</v>
+      </c>
+      <c r="O44">
+        <v>188494</v>
+      </c>
+      <c r="P44">
+        <v>108586</v>
+      </c>
+      <c r="Q44">
+        <v>-2715</v>
+      </c>
+      <c r="R44">
+        <v>43555</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>44638</v>
+      </c>
+      <c r="U44">
+        <v>11876</v>
+      </c>
+      <c r="V44">
+        <v>-81</v>
+      </c>
+      <c r="W44">
+        <v>-626</v>
+      </c>
+      <c r="X44">
+        <v>1077</v>
+      </c>
+      <c r="Y44">
+        <v>1129</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>2418</v>
+      </c>
+      <c r="D45">
+        <v>36060</v>
+      </c>
+      <c r="E45">
+        <v>10362</v>
+      </c>
+      <c r="F45">
+        <v>4570</v>
+      </c>
+      <c r="G45">
+        <v>81306</v>
+      </c>
+      <c r="H45">
+        <v>233737</v>
+      </c>
+      <c r="I45">
+        <v>22717</v>
+      </c>
+      <c r="J45">
+        <v>12979</v>
+      </c>
+      <c r="K45">
+        <v>2490</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>84294</v>
+      </c>
+      <c r="O45">
+        <v>186648</v>
+      </c>
+      <c r="P45">
+        <v>107994</v>
+      </c>
+      <c r="Q45">
+        <v>-600</v>
+      </c>
+      <c r="R45">
+        <v>43646</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>47089</v>
+      </c>
+      <c r="U45">
+        <v>13472</v>
+      </c>
+      <c r="V45">
+        <v>5076</v>
+      </c>
+      <c r="W45">
+        <v>-558</v>
+      </c>
+      <c r="X45">
+        <v>-1289</v>
+      </c>
+      <c r="Y45">
+        <v>1180</v>
+      </c>
+      <c r="Z45">
+        <v>-970</v>
+      </c>
+      <c r="AA45">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>2351</v>
+      </c>
+      <c r="D46">
+        <v>35473</v>
+      </c>
+      <c r="E46">
+        <v>6924</v>
+      </c>
+      <c r="F46">
+        <v>4528</v>
+      </c>
+      <c r="G46">
+        <v>80565</v>
+      </c>
+      <c r="H46">
+        <v>231529</v>
+      </c>
+      <c r="I46">
+        <v>21406</v>
+      </c>
+      <c r="J46">
+        <v>12103</v>
+      </c>
+      <c r="K46">
+        <v>2890</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>84252</v>
+      </c>
+      <c r="O46">
+        <v>182758</v>
+      </c>
+      <c r="P46">
+        <v>106093</v>
+      </c>
+      <c r="Q46">
+        <v>2718</v>
+      </c>
+      <c r="R46">
+        <v>43738</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>48771</v>
+      </c>
+      <c r="U46">
+        <v>16851</v>
+      </c>
+      <c r="V46">
+        <v>6553</v>
+      </c>
+      <c r="W46">
+        <v>-608</v>
+      </c>
+      <c r="X46">
+        <v>-2133</v>
+      </c>
+      <c r="Y46">
+        <v>1345</v>
+      </c>
+      <c r="Z46">
+        <v>426</v>
+      </c>
+      <c r="AA46">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-194</v>
+      </c>
+      <c r="D47">
+        <v>30826</v>
+      </c>
+      <c r="E47">
+        <v>6797</v>
+      </c>
+      <c r="F47">
+        <v>2068</v>
+      </c>
+      <c r="G47">
+        <v>74992</v>
+      </c>
+      <c r="H47">
+        <v>228037</v>
+      </c>
+      <c r="I47">
+        <v>21018</v>
+      </c>
+      <c r="J47">
+        <v>12179</v>
+      </c>
+      <c r="K47">
+        <v>1897</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>84905</v>
+      </c>
+      <c r="O47">
+        <v>182080</v>
+      </c>
+      <c r="P47">
+        <v>104573</v>
+      </c>
+      <c r="Q47">
+        <v>44</v>
+      </c>
+      <c r="R47">
+        <v>43830</v>
+      </c>
+      <c r="S47">
+        <v>164000</v>
+      </c>
+      <c r="T47">
+        <v>45957</v>
+      </c>
+      <c r="U47">
+        <v>15769</v>
+      </c>
+      <c r="V47">
+        <v>3473</v>
+      </c>
+      <c r="W47">
+        <v>-558</v>
+      </c>
+      <c r="X47">
+        <v>-2332</v>
+      </c>
+      <c r="Y47">
+        <v>1320</v>
+      </c>
+      <c r="Z47">
+        <v>2733</v>
+      </c>
+      <c r="AA47">
+        <v>-194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>294</v>
+      </c>
+      <c r="D48">
+        <v>32709</v>
+      </c>
+      <c r="E48">
+        <v>7536</v>
+      </c>
+      <c r="F48">
+        <v>3141</v>
+      </c>
+      <c r="G48">
+        <v>97699</v>
+      </c>
+      <c r="H48">
+        <v>246624</v>
+      </c>
+      <c r="I48">
+        <v>20031</v>
+      </c>
+      <c r="J48">
+        <v>29155</v>
+      </c>
+      <c r="K48">
+        <v>1645</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>-11339</v>
+      </c>
+      <c r="N48">
+        <v>91292</v>
+      </c>
+      <c r="O48">
+        <v>202307</v>
+      </c>
+      <c r="P48">
+        <v>128759</v>
+      </c>
+      <c r="Q48">
+        <v>18223</v>
+      </c>
+      <c r="R48">
+        <v>43921</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>44317</v>
+      </c>
+      <c r="U48">
+        <v>26906</v>
+      </c>
+      <c r="V48">
+        <v>1561</v>
+      </c>
+      <c r="W48">
+        <v>-590</v>
+      </c>
+      <c r="X48">
+        <v>23680</v>
+      </c>
+      <c r="Y48">
+        <v>1480</v>
+      </c>
+      <c r="Z48">
+        <v>-2978</v>
+      </c>
+      <c r="AA48">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-758</v>
+      </c>
+      <c r="D49">
+        <v>16778</v>
+      </c>
+      <c r="E49">
+        <v>7946</v>
+      </c>
+      <c r="F49">
+        <v>96</v>
+      </c>
+      <c r="G49">
+        <v>87497</v>
+      </c>
+      <c r="H49">
+        <v>237535</v>
+      </c>
+      <c r="I49">
+        <v>15154</v>
+      </c>
+      <c r="J49">
+        <v>31937</v>
+      </c>
+      <c r="K49">
+        <v>2645</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>77904</v>
+      </c>
+      <c r="O49">
+        <v>194042</v>
+      </c>
+      <c r="P49">
+        <v>128258</v>
+      </c>
+      <c r="Q49">
+        <v>-8526</v>
+      </c>
+      <c r="R49">
+        <v>44012</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>43493</v>
+      </c>
+      <c r="U49">
+        <v>21728</v>
+      </c>
+      <c r="V49">
+        <v>-2815</v>
+      </c>
+      <c r="W49">
+        <v>-2</v>
+      </c>
+      <c r="X49">
+        <v>36</v>
+      </c>
+      <c r="Y49">
+        <v>1234</v>
+      </c>
+      <c r="Z49">
+        <v>-984</v>
+      </c>
+      <c r="AA49">
+        <v>-758</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>4045</v>
+      </c>
+      <c r="D50">
+        <v>35480</v>
+      </c>
+      <c r="E50">
+        <v>9939</v>
+      </c>
+      <c r="F50">
+        <v>6098</v>
+      </c>
+      <c r="G50">
+        <v>89177</v>
+      </c>
+      <c r="H50">
+        <v>239671</v>
+      </c>
+      <c r="I50">
+        <v>20914</v>
+      </c>
+      <c r="J50">
+        <v>26160</v>
+      </c>
+      <c r="K50">
+        <v>2225</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>80603</v>
+      </c>
+      <c r="O50">
+        <v>191663</v>
+      </c>
+      <c r="P50">
+        <v>118579</v>
+      </c>
+      <c r="Q50">
+        <v>-2784</v>
+      </c>
+      <c r="R50">
+        <v>44104</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>48008</v>
+      </c>
+      <c r="U50">
+        <v>22239</v>
+      </c>
+      <c r="V50">
+        <v>11231</v>
+      </c>
+      <c r="W50">
+        <v>-61</v>
+      </c>
+      <c r="X50">
+        <v>-9557</v>
+      </c>
+      <c r="Y50">
+        <v>1264</v>
+      </c>
+      <c r="Z50">
+        <v>-1210</v>
+      </c>
+      <c r="AA50">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
         <v>2846</v>
       </c>
-      <c r="D42">
+      <c r="D51">
         <v>37518</v>
       </c>
-      <c r="E42">
+      <c r="E51">
         <v>8035</v>
       </c>
-      <c r="F42">
+      <c r="F51">
         <v>5014</v>
       </c>
-      <c r="G42">
+      <c r="G51">
         <v>80924</v>
       </c>
-      <c r="H42">
+      <c r="H51">
         <v>235194</v>
       </c>
-      <c r="I42">
+      <c r="I51">
         <v>19928</v>
       </c>
-      <c r="J42">
+      <c r="J51">
         <v>15956</v>
       </c>
-      <c r="K42">
+      <c r="K51">
         <v>1276</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>79910</v>
       </c>
-      <c r="O42">
+      <c r="O51">
         <v>185517</v>
       </c>
-      <c r="P42">
+      <c r="P51">
         <v>111072</v>
       </c>
-      <c r="Q42">
+      <c r="Q51">
         <v>-6739</v>
       </c>
-      <c r="R42">
+      <c r="R51">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S51">
         <v>155000</v>
       </c>
-      <c r="T42">
+      <c r="T51">
         <v>49677</v>
       </c>
-      <c r="U42">
+      <c r="U51">
         <v>14892</v>
       </c>
-      <c r="V42">
+      <c r="V51">
         <v>6693</v>
       </c>
-      <c r="W42">
+      <c r="W51">
         <v>-16</v>
       </c>
-      <c r="X42">
+      <c r="X51">
         <v>-8607</v>
       </c>
-      <c r="Y42">
+      <c r="Y51">
         <v>1206</v>
       </c>
-      <c r="Z42">
+      <c r="Z51">
         <v>909</v>
       </c>
-      <c r="AA42">
+      <c r="AA51">
         <v>2846</v>
       </c>
     </row>
